--- a/data/negative_signals/Indirectly connected (A-X-B) - Carteolol - liver failure, acute.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Carteolol - liver failure, acute.xlsx
@@ -191,103 +191,1147 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>127682865</t>
+    <t>59288550</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>61348230</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>133296212</t>
+    <t>66902126</t>
   </si>
   <si>
     <t>is location of</t>
   </si>
   <si>
-    <t>125689483</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>117486756</t>
+    <t>51293379</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>61516095</t>
+  </si>
+  <si>
+    <t>74602307</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>52109827</t>
+  </si>
+  <si>
+    <t>57386901</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>66993624</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>77416533</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>73678161</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51287051</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>59648412</t>
+  </si>
+  <si>
+    <t>52116700</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>55322016</t>
+  </si>
+  <si>
+    <t>54026160</t>
+  </si>
+  <si>
+    <t>55359520</t>
+  </si>
+  <si>
+    <t>837296</t>
+  </si>
+  <si>
+    <t>cardiac arrhythmia</t>
+  </si>
+  <si>
+    <t>14038873</t>
+  </si>
+  <si>
+    <t>51340019</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>129308361</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>52172378</t>
+  </si>
+  <si>
+    <t>3781804</t>
+  </si>
+  <si>
+    <t>metabolic acidosis</t>
+  </si>
+  <si>
+    <t>14038858</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>58444716</t>
+  </si>
+  <si>
+    <t>5291275</t>
+  </si>
+  <si>
+    <t>aldosterone</t>
+  </si>
+  <si>
+    <t>53319267</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>63533359</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>13273023</t>
+  </si>
+  <si>
+    <t>79720108</t>
+  </si>
+  <si>
+    <t>130253</t>
+  </si>
+  <si>
+    <t>acidosis</t>
+  </si>
+  <si>
+    <t>14038857</t>
+  </si>
+  <si>
+    <t>52879271</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>72659305</t>
+  </si>
+  <si>
+    <t>62890163</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>54823515</t>
+  </si>
+  <si>
+    <t>115879272</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>87782981</t>
+  </si>
+  <si>
+    <t>64334997</t>
+  </si>
+  <si>
+    <t>54010207</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>122449892</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>125627022</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>68834082</t>
+  </si>
+  <si>
+    <t>52478083</t>
+  </si>
+  <si>
+    <t>2940391</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor-alpha</t>
+  </si>
+  <si>
+    <t>132472962</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>133321430</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>104252167</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>87661700</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>68399839</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>60499522</t>
+  </si>
+  <si>
     <t>5648228</t>
   </si>
   <si>
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>119599712</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>148049234</t>
+    <t>56915998</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>91967428</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>83551469</t>
   </si>
   <si>
     <t>does not use</t>
   </si>
   <si>
-    <t>119599757</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>188771678</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>158155524</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>123357852</t>
-  </si>
-  <si>
-    <t>118143471</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>137929071</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>148960902</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>117666051</t>
-  </si>
-  <si>
-    <t>128994083</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>182193950</t>
-  </si>
-  <si>
-    <t>predisposes</t>
+    <t>122569924</t>
+  </si>
+  <si>
+    <t>53318550</t>
+  </si>
+  <si>
+    <t>53318584</t>
+  </si>
+  <si>
+    <t>51466136</t>
+  </si>
+  <si>
+    <t>115996242</t>
+  </si>
+  <si>
+    <t>51893104</t>
+  </si>
+  <si>
+    <t>74049109</t>
+  </si>
+  <si>
+    <t>82540308</t>
+  </si>
+  <si>
+    <t>62514506</t>
+  </si>
+  <si>
+    <t>5797655</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>82992668</t>
+  </si>
+  <si>
+    <t>72315970</t>
+  </si>
+  <si>
+    <t>104406571</t>
+  </si>
+  <si>
+    <t>59428484</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>14038927</t>
+  </si>
+  <si>
+    <t>70582059</t>
+  </si>
+  <si>
+    <t>40115380</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>122274520</t>
+  </si>
+  <si>
+    <t>95468187</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>83047344</t>
+  </si>
+  <si>
+    <t>61119910</t>
+  </si>
+  <si>
+    <t>40116315</t>
+  </si>
+  <si>
+    <t>40106280</t>
+  </si>
+  <si>
+    <t>120219147</t>
+  </si>
+  <si>
+    <t>4034527</t>
+  </si>
+  <si>
+    <t>interleukin-6</t>
+  </si>
+  <si>
+    <t>132473343</t>
+  </si>
+  <si>
+    <t>71765742</t>
+  </si>
+  <si>
+    <t>2786011</t>
+  </si>
+  <si>
+    <t>cyp1a2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>95959549</t>
+  </si>
+  <si>
+    <t>28606449</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>836641</t>
+  </si>
+  <si>
+    <t>norepinephrine</t>
+  </si>
+  <si>
+    <t>62293565</t>
+  </si>
+  <si>
+    <t>83546769</t>
+  </si>
+  <si>
+    <t>56105424</t>
+  </si>
+  <si>
+    <t>89010778</t>
+  </si>
+  <si>
+    <t>70344043</t>
+  </si>
+  <si>
+    <t>74008341</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>66253056</t>
+  </si>
+  <si>
+    <t>57237252</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>55627584</t>
+  </si>
+  <si>
+    <t>89898374</t>
+  </si>
+  <si>
+    <t>61824597</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>62780528</t>
+  </si>
+  <si>
+    <t>51592306</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>54699358</t>
+  </si>
+  <si>
+    <t>97000043</t>
+  </si>
+  <si>
+    <t>51599574</t>
+  </si>
+  <si>
+    <t>3769667</t>
+  </si>
+  <si>
+    <t>blood flow</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>96533251</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>54025805</t>
+  </si>
+  <si>
+    <t>70923902</t>
+  </si>
+  <si>
+    <t>821170</t>
+  </si>
+  <si>
+    <t>epinephrine</t>
+  </si>
+  <si>
+    <t>66149946</t>
+  </si>
+  <si>
+    <t>70344140</t>
+  </si>
+  <si>
+    <t>87784568</t>
+  </si>
+  <si>
+    <t>59268516</t>
+  </si>
+  <si>
+    <t>74008433</t>
+  </si>
+  <si>
+    <t>431254</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>59288694</t>
+  </si>
+  <si>
+    <t>65028373</t>
+  </si>
+  <si>
+    <t>51315267</t>
+  </si>
+  <si>
+    <t>67577805</t>
+  </si>
+  <si>
+    <t>4049113</t>
+  </si>
+  <si>
+    <t>ischemia</t>
+  </si>
+  <si>
+    <t>94342923</t>
+  </si>
+  <si>
+    <t>65413193</t>
+  </si>
+  <si>
+    <t>92908404</t>
+  </si>
+  <si>
+    <t>4041592</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>65277385</t>
+  </si>
+  <si>
+    <t>55321819</t>
+  </si>
+  <si>
+    <t>122963951</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>68219702</t>
+  </si>
+  <si>
+    <t>102473998</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>68835685</t>
+  </si>
+  <si>
+    <t>69003576</t>
+  </si>
+  <si>
+    <t>52110989</t>
+  </si>
+  <si>
+    <t>74601802</t>
+  </si>
+  <si>
+    <t>68832155</t>
+  </si>
+  <si>
+    <t>89641552</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>58558033</t>
+  </si>
+  <si>
+    <t>62090088</t>
+  </si>
+  <si>
+    <t>75051666</t>
+  </si>
+  <si>
+    <t>129416538</t>
+  </si>
+  <si>
+    <t>99518</t>
+  </si>
+  <si>
+    <t>catecholamines</t>
+  </si>
+  <si>
+    <t>53319163</t>
+  </si>
+  <si>
+    <t>53319018</t>
+  </si>
+  <si>
+    <t>76813349</t>
+  </si>
+  <si>
+    <t>746038</t>
+  </si>
+  <si>
+    <t>cyclic amp</t>
+  </si>
+  <si>
+    <t>67410080</t>
+  </si>
+  <si>
+    <t>59268566</t>
+  </si>
+  <si>
+    <t>69659179</t>
+  </si>
+  <si>
+    <t>613023</t>
+  </si>
+  <si>
+    <t>body tissue</t>
+  </si>
+  <si>
+    <t>133685824</t>
+  </si>
+  <si>
+    <t>58389432</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>52955521</t>
+  </si>
+  <si>
+    <t>86100542</t>
+  </si>
+  <si>
+    <t>91866904</t>
+  </si>
+  <si>
+    <t>51400604</t>
+  </si>
+  <si>
+    <t>360728</t>
+  </si>
+  <si>
+    <t>complement system proteins</t>
+  </si>
+  <si>
+    <t>111568466</t>
+  </si>
+  <si>
+    <t>does not stimulate</t>
+  </si>
+  <si>
+    <t>127024382</t>
+  </si>
+  <si>
+    <t>308092</t>
+  </si>
+  <si>
+    <t>agonists</t>
+  </si>
+  <si>
+    <t>51695390</t>
+  </si>
+  <si>
+    <t>62460170</t>
+  </si>
+  <si>
+    <t>96758964</t>
+  </si>
+  <si>
+    <t>2464005</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>55322216</t>
+  </si>
+  <si>
+    <t>81296215</t>
+  </si>
+  <si>
+    <t>81243</t>
+  </si>
+  <si>
+    <t>anesthetics</t>
+  </si>
+  <si>
+    <t>76223909</t>
+  </si>
+  <si>
+    <t>114371385</t>
+  </si>
+  <si>
+    <t>735808</t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>Phenomena</t>
+  </si>
+  <si>
+    <t>72555812</t>
+  </si>
+  <si>
+    <t>106894736</t>
+  </si>
+  <si>
+    <t>5806727</t>
+  </si>
+  <si>
+    <t>abnormal renal function</t>
+  </si>
+  <si>
+    <t>65609665</t>
+  </si>
+  <si>
+    <t>59652953</t>
+  </si>
+  <si>
+    <t>77815711</t>
+  </si>
+  <si>
+    <t>92596482</t>
+  </si>
+  <si>
+    <t>97123697</t>
+  </si>
+  <si>
+    <t>555919</t>
+  </si>
+  <si>
+    <t>atrial natriuretic factor</t>
+  </si>
+  <si>
+    <t>77986315</t>
+  </si>
+  <si>
+    <t>79720498</t>
+  </si>
+  <si>
+    <t>5264642</t>
+  </si>
+  <si>
+    <t>binding sites</t>
+  </si>
+  <si>
+    <t>62914036</t>
+  </si>
+  <si>
+    <t>62913574</t>
+  </si>
+  <si>
+    <t>62914110</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>85946454</t>
+  </si>
+  <si>
+    <t>517257</t>
+  </si>
+  <si>
+    <t>glomerular filtration rate</t>
+  </si>
+  <si>
+    <t>62781847</t>
+  </si>
+  <si>
+    <t>102098612</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>86308369</t>
+  </si>
+  <si>
+    <t>101674510</t>
+  </si>
+  <si>
+    <t>500157</t>
+  </si>
+  <si>
+    <t>cardiac output</t>
+  </si>
+  <si>
+    <t>53319413</t>
+  </si>
+  <si>
+    <t>84374039</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>119934857</t>
+  </si>
+  <si>
+    <t>66904776</t>
+  </si>
+  <si>
+    <t>89898410</t>
+  </si>
+  <si>
+    <t>51694760</t>
+  </si>
+  <si>
+    <t>93190171</t>
+  </si>
+  <si>
+    <t>58088764</t>
+  </si>
+  <si>
+    <t>4049124</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t>58294279</t>
+  </si>
+  <si>
+    <t>130384066</t>
+  </si>
+  <si>
+    <t>4048421</t>
+  </si>
+  <si>
+    <t>hemodynamics</t>
+  </si>
+  <si>
+    <t>117461118</t>
+  </si>
+  <si>
+    <t>55811895</t>
+  </si>
+  <si>
+    <t>79752508</t>
+  </si>
+  <si>
+    <t>4047766</t>
+  </si>
+  <si>
+    <t>histamine</t>
+  </si>
+  <si>
+    <t>89468512</t>
+  </si>
+  <si>
+    <t>118312309</t>
+  </si>
+  <si>
+    <t>4035264</t>
+  </si>
+  <si>
+    <t>creatinine</t>
+  </si>
+  <si>
+    <t>65609880</t>
+  </si>
+  <si>
+    <t>88791491</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>94343147</t>
+  </si>
+  <si>
+    <t>130821115</t>
+  </si>
+  <si>
+    <t>3799048</t>
+  </si>
+  <si>
+    <t>beagle</t>
+  </si>
+  <si>
+    <t>65277289</t>
+  </si>
+  <si>
+    <t>92714611</t>
+  </si>
+  <si>
+    <t>3762446</t>
+  </si>
+  <si>
+    <t>diabetic</t>
+  </si>
+  <si>
+    <t>95272534</t>
+  </si>
+  <si>
+    <t>133162153</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>57426656</t>
+  </si>
+  <si>
+    <t>57009257</t>
+  </si>
+  <si>
+    <t>115975867</t>
+  </si>
+  <si>
+    <t>352433</t>
+  </si>
+  <si>
+    <t>endothelin-1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>122496133</t>
+  </si>
+  <si>
+    <t>65656665</t>
+  </si>
+  <si>
+    <t>3247936</t>
+  </si>
+  <si>
+    <t>entire nerve</t>
+  </si>
+  <si>
+    <t>84975445</t>
+  </si>
+  <si>
+    <t>100377217</t>
+  </si>
+  <si>
+    <t>320774</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>95272893</t>
+  </si>
+  <si>
+    <t>55488731</t>
+  </si>
+  <si>
+    <t>133378255</t>
+  </si>
+  <si>
+    <t>113596818</t>
+  </si>
+  <si>
+    <t>3202620</t>
+  </si>
+  <si>
+    <t>intervention regimes</t>
+  </si>
+  <si>
+    <t>89010648</t>
+  </si>
+  <si>
+    <t>98114902</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>76224023</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>52894806</t>
+  </si>
+  <si>
+    <t>273402</t>
+  </si>
+  <si>
+    <t>serum albumin, bovine</t>
+  </si>
+  <si>
+    <t>56428795</t>
+  </si>
+  <si>
+    <t>109029520</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>2448992</t>
+  </si>
+  <si>
+    <t>vasodilation disorder</t>
+  </si>
+  <si>
+    <t>59996613</t>
+  </si>
+  <si>
+    <t>59997360</t>
+  </si>
+  <si>
+    <t>117190525</t>
+  </si>
+  <si>
+    <t>2435336</t>
+  </si>
+  <si>
+    <t>well adult</t>
+  </si>
+  <si>
+    <t>60363602</t>
+  </si>
+  <si>
+    <t>107571004</t>
+  </si>
+  <si>
+    <t>222900</t>
+  </si>
+  <si>
+    <t>electrolytes</t>
+  </si>
+  <si>
+    <t>81438325</t>
+  </si>
+  <si>
+    <t>55359940</t>
+  </si>
+  <si>
+    <t>1669597</t>
+  </si>
+  <si>
+    <t>lymphoma</t>
+  </si>
+  <si>
+    <t>76883589</t>
+  </si>
+  <si>
+    <t>89672751</t>
+  </si>
+  <si>
+    <t>40115939</t>
   </si>
   <si>
     <t>133368</t>
@@ -296,1057 +1340,13 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>165432730</t>
-  </si>
-  <si>
-    <t>118328603</t>
-  </si>
-  <si>
-    <t>190464647</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>136995958</t>
-  </si>
-  <si>
-    <t>80235294</t>
-  </si>
-  <si>
-    <t>106307794</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>431254</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>125689702</t>
-  </si>
-  <si>
-    <t>117512315</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>131430994</t>
-  </si>
-  <si>
-    <t>134056050</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>118322089</t>
-  </si>
-  <si>
-    <t>127913540</t>
-  </si>
-  <si>
-    <t>138513100</t>
-  </si>
-  <si>
-    <t>117482199</t>
-  </si>
-  <si>
-    <t>133483025</t>
-  </si>
-  <si>
-    <t>143847356</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>140065917</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>123886521</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>126070642</t>
-  </si>
-  <si>
-    <t>118330545</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>120366796</t>
-  </si>
-  <si>
-    <t>121752689</t>
-  </si>
-  <si>
-    <t>121728204</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>139006850</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>154100650</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>182076663</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>129332407</t>
-  </si>
-  <si>
-    <t>121210128</t>
-  </si>
-  <si>
-    <t>120336841</t>
-  </si>
-  <si>
-    <t>130686152</t>
-  </si>
-  <si>
-    <t>191814631</t>
-  </si>
-  <si>
-    <t>188640733</t>
-  </si>
-  <si>
-    <t>837296</t>
-  </si>
-  <si>
-    <t>cardiac arrhythmia</t>
-  </si>
-  <si>
-    <t>80235250</t>
-  </si>
-  <si>
-    <t>117548060</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>195532952</t>
-  </si>
-  <si>
-    <t>118404470</t>
-  </si>
-  <si>
-    <t>3781804</t>
-  </si>
-  <si>
-    <t>metabolic acidosis</t>
-  </si>
-  <si>
-    <t>80235231</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>124876412</t>
-  </si>
-  <si>
-    <t>5291275</t>
-  </si>
-  <si>
-    <t>aldosterone</t>
-  </si>
-  <si>
-    <t>129934764</t>
-  </si>
-  <si>
-    <t>119600511</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>146203280</t>
-  </si>
-  <si>
-    <t>79578040</t>
-  </si>
-  <si>
-    <t>130253</t>
-  </si>
-  <si>
-    <t>acidosis</t>
-  </si>
-  <si>
-    <t>80235229</t>
-  </si>
-  <si>
-    <t>119133137</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>135236601</t>
-  </si>
-  <si>
-    <t>118729513</t>
-  </si>
-  <si>
-    <t>3769667</t>
-  </si>
-  <si>
-    <t>blood flow</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>162733079</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>120366578</t>
-  </si>
-  <si>
-    <t>137278896</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>188489181</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>161668018</t>
-  </si>
-  <si>
-    <t>4034527</t>
-  </si>
-  <si>
-    <t>interleukin-6</t>
-  </si>
-  <si>
-    <t>198663882</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>138198977</t>
-  </si>
-  <si>
-    <t>2786011</t>
-  </si>
-  <si>
-    <t>cyp1a2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>162162111</t>
-  </si>
-  <si>
-    <t>94961796</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>836641</t>
-  </si>
-  <si>
-    <t>norepinephrine</t>
-  </si>
-  <si>
-    <t>148044394</t>
-  </si>
-  <si>
-    <t>155280294</t>
-  </si>
-  <si>
-    <t>118506594</t>
-  </si>
-  <si>
-    <t>128622515</t>
-  </si>
-  <si>
-    <t>136666597</t>
-  </si>
-  <si>
-    <t>140358681</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>132596907</t>
-  </si>
-  <si>
-    <t>123730215</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>156053512</t>
-  </si>
-  <si>
-    <t>117992369</t>
-  </si>
-  <si>
-    <t>128218443</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>129226219</t>
-  </si>
-  <si>
-    <t>117794811</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>121099927</t>
-  </si>
-  <si>
-    <t>163192171</t>
-  </si>
-  <si>
-    <t>117820309</t>
-  </si>
-  <si>
-    <t>5797655</t>
-  </si>
-  <si>
-    <t>organ</t>
-  </si>
-  <si>
-    <t>149459721</t>
-  </si>
-  <si>
-    <t>170621184</t>
-  </si>
-  <si>
-    <t>138696229</t>
-  </si>
-  <si>
-    <t>125869595</t>
-  </si>
-  <si>
-    <t>4049113</t>
-  </si>
-  <si>
-    <t>ischemia</t>
-  </si>
-  <si>
-    <t>160620845</t>
-  </si>
-  <si>
-    <t>159075715</t>
-  </si>
-  <si>
-    <t>131894887</t>
-  </si>
-  <si>
-    <t>4041592</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>121752552</t>
-  </si>
-  <si>
-    <t>131664220</t>
-  </si>
-  <si>
-    <t>189179146</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>133362258</t>
-  </si>
-  <si>
-    <t>168662721</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>124948320</t>
-  </si>
-  <si>
-    <t>128480614</t>
-  </si>
-  <si>
-    <t>195622374</t>
-  </si>
-  <si>
-    <t>141485577</t>
-  </si>
-  <si>
-    <t>99518</t>
-  </si>
-  <si>
-    <t>catecholamines</t>
-  </si>
-  <si>
-    <t>119600316</t>
-  </si>
-  <si>
-    <t>119600463</t>
-  </si>
-  <si>
-    <t>143203992</t>
-  </si>
-  <si>
-    <t>821170</t>
-  </si>
-  <si>
-    <t>epinephrine</t>
-  </si>
-  <si>
-    <t>136666711</t>
-  </si>
-  <si>
-    <t>154102315</t>
-  </si>
-  <si>
-    <t>125667624</t>
-  </si>
-  <si>
-    <t>129487986</t>
-  </si>
-  <si>
-    <t>140358771</t>
-  </si>
-  <si>
-    <t>746038</t>
-  </si>
-  <si>
-    <t>cyclic amp</t>
-  </si>
-  <si>
-    <t>125667694</t>
-  </si>
-  <si>
-    <t>133814380</t>
-  </si>
-  <si>
-    <t>135994152</t>
-  </si>
-  <si>
-    <t>produces</t>
-  </si>
-  <si>
-    <t>613023</t>
-  </si>
-  <si>
-    <t>body tissue</t>
-  </si>
-  <si>
-    <t>199879289</t>
-  </si>
-  <si>
-    <t>121081117</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>119236347</t>
-  </si>
-  <si>
-    <t>158095083</t>
-  </si>
-  <si>
-    <t>152524196</t>
-  </si>
-  <si>
-    <t>117615032</t>
-  </si>
-  <si>
-    <t>4048421</t>
-  </si>
-  <si>
-    <t>hemodynamics</t>
-  </si>
-  <si>
-    <t>183598365</t>
-  </si>
-  <si>
-    <t>122180621</t>
-  </si>
-  <si>
-    <t>146235927</t>
-  </si>
-  <si>
-    <t>360728</t>
-  </si>
-  <si>
-    <t>complement system proteins</t>
-  </si>
-  <si>
-    <t>177794990</t>
-  </si>
-  <si>
-    <t>does not stimulate</t>
-  </si>
-  <si>
-    <t>193175260</t>
-  </si>
-  <si>
-    <t>308092</t>
-  </si>
-  <si>
-    <t>agonists</t>
-  </si>
-  <si>
-    <t>117900272</t>
-  </si>
-  <si>
-    <t>128839115</t>
-  </si>
-  <si>
-    <t>162882277</t>
-  </si>
-  <si>
-    <t>2940391</t>
-  </si>
-  <si>
-    <t>tumor necrosis factor-alpha</t>
-  </si>
-  <si>
-    <t>198663515</t>
-  </si>
-  <si>
-    <t>153891121</t>
-  </si>
-  <si>
-    <t>134853250</t>
-  </si>
-  <si>
-    <t>126951655</t>
-  </si>
-  <si>
-    <t>199514259</t>
-  </si>
-  <si>
-    <t>170467298</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>2464005</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>121752900</t>
-  </si>
-  <si>
-    <t>147745627</t>
-  </si>
-  <si>
-    <t>81243</t>
-  </si>
-  <si>
-    <t>anesthetics</t>
-  </si>
-  <si>
-    <t>142710704</t>
-  </si>
-  <si>
-    <t>180575007</t>
-  </si>
-  <si>
-    <t>735808</t>
-  </si>
-  <si>
-    <t>permeability</t>
-  </si>
-  <si>
-    <t>Phenomena</t>
-  </si>
-  <si>
-    <t>138972319</t>
-  </si>
-  <si>
-    <t>173117288</t>
-  </si>
-  <si>
-    <t>5806727</t>
-  </si>
-  <si>
-    <t>abnormal renal function</t>
-  </si>
-  <si>
-    <t>132016725</t>
-  </si>
-  <si>
-    <t>163360072</t>
-  </si>
-  <si>
-    <t>126100001</t>
-  </si>
-  <si>
-    <t>144294918</t>
-  </si>
-  <si>
-    <t>158763904</t>
-  </si>
-  <si>
-    <t>555919</t>
-  </si>
-  <si>
-    <t>atrial natriuretic factor</t>
-  </si>
-  <si>
-    <t>144466514</t>
-  </si>
-  <si>
-    <t>146203631</t>
-  </si>
-  <si>
-    <t>5264642</t>
-  </si>
-  <si>
-    <t>binding sites</t>
-  </si>
-  <si>
-    <t>129356945</t>
-  </si>
-  <si>
-    <t>129357281</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>129357244</t>
-  </si>
-  <si>
-    <t>152371220</t>
-  </si>
-  <si>
-    <t>517257</t>
-  </si>
-  <si>
-    <t>glomerular filtration rate</t>
-  </si>
-  <si>
-    <t>129227576</t>
-  </si>
-  <si>
-    <t>168299947</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>152753431</t>
-  </si>
-  <si>
-    <t>167860736</t>
-  </si>
-  <si>
-    <t>500157</t>
-  </si>
-  <si>
-    <t>cardiac output</t>
-  </si>
-  <si>
-    <t>119600610</t>
-  </si>
-  <si>
-    <t>150755106</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>117929967</t>
-  </si>
-  <si>
-    <t>156053556</t>
-  </si>
-  <si>
-    <t>186143315</t>
-  </si>
-  <si>
-    <t>133299092</t>
-  </si>
-  <si>
-    <t>159372791</t>
-  </si>
-  <si>
-    <t>124477094</t>
-  </si>
-  <si>
-    <t>4049124</t>
-  </si>
-  <si>
-    <t>hyperthyroidism</t>
-  </si>
-  <si>
-    <t>124718055</t>
-  </si>
-  <si>
-    <t>196570660</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>149465895</t>
-  </si>
-  <si>
-    <t>127540909</t>
-  </si>
-  <si>
-    <t>106308875</t>
-  </si>
-  <si>
-    <t>186360424</t>
-  </si>
-  <si>
-    <t>106291356</t>
-  </si>
-  <si>
-    <t>4047766</t>
-  </si>
-  <si>
-    <t>histamine</t>
-  </si>
-  <si>
-    <t>155624778</t>
-  </si>
-  <si>
-    <t>184523993</t>
-  </si>
-  <si>
-    <t>4035264</t>
-  </si>
-  <si>
-    <t>creatinine</t>
-  </si>
-  <si>
-    <t>132016969</t>
-  </si>
-  <si>
-    <t>154989606</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>160621094</t>
-  </si>
-  <si>
-    <t>197024865</t>
-  </si>
-  <si>
-    <t>3799048</t>
-  </si>
-  <si>
-    <t>beagle</t>
-  </si>
-  <si>
-    <t>131664084</t>
-  </si>
-  <si>
-    <t>158833107</t>
-  </si>
-  <si>
-    <t>3762446</t>
-  </si>
-  <si>
-    <t>diabetic</t>
-  </si>
-  <si>
-    <t>161476294</t>
-  </si>
-  <si>
-    <t>199354136</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>123798479</t>
-  </si>
-  <si>
-    <t>182172142</t>
-  </si>
-  <si>
-    <t>123436313</t>
-  </si>
-  <si>
-    <t>352433</t>
-  </si>
-  <si>
-    <t>endothelin-1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>188709354</t>
-  </si>
-  <si>
-    <t>132051796</t>
-  </si>
-  <si>
-    <t>3247936</t>
-  </si>
-  <si>
-    <t>entire nerve</t>
-  </si>
-  <si>
-    <t>151445130</t>
-  </si>
-  <si>
-    <t>166488035</t>
-  </si>
-  <si>
-    <t>320774</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>161476642</t>
-  </si>
-  <si>
-    <t>121904289</t>
-  </si>
-  <si>
-    <t>179797396</t>
-  </si>
-  <si>
-    <t>199570839</t>
-  </si>
-  <si>
-    <t>3202620</t>
-  </si>
-  <si>
-    <t>intervention regimes</t>
-  </si>
-  <si>
-    <t>155280139</t>
-  </si>
-  <si>
-    <t>164322634</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>135504509</t>
-  </si>
-  <si>
-    <t>138512525</t>
-  </si>
-  <si>
-    <t>118323577</t>
-  </si>
-  <si>
-    <t>135234710</t>
-  </si>
-  <si>
-    <t>135238426</t>
-  </si>
-  <si>
-    <t>155871606</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>142710805</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>119170744</t>
-  </si>
-  <si>
-    <t>273402</t>
-  </si>
-  <si>
-    <t>serum albumin, bovine</t>
-  </si>
-  <si>
-    <t>122850382</t>
-  </si>
-  <si>
-    <t>175218532</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>2448992</t>
-  </si>
-  <si>
-    <t>vasodilation disorder</t>
-  </si>
-  <si>
-    <t>126416561</t>
-  </si>
-  <si>
-    <t>126415426</t>
-  </si>
-  <si>
-    <t>183332090</t>
-  </si>
-  <si>
-    <t>2435336</t>
-  </si>
-  <si>
-    <t>well adult</t>
-  </si>
-  <si>
-    <t>126756341</t>
-  </si>
-  <si>
-    <t>173792820</t>
-  </si>
-  <si>
-    <t>222900</t>
-  </si>
-  <si>
-    <t>electrolytes</t>
-  </si>
-  <si>
-    <t>145889200</t>
-  </si>
-  <si>
-    <t>121728351</t>
-  </si>
-  <si>
-    <t>1669597</t>
-  </si>
-  <si>
-    <t>lymphoma</t>
-  </si>
-  <si>
-    <t>143370483</t>
-  </si>
-  <si>
-    <t>106308450</t>
-  </si>
-  <si>
-    <t>155858915</t>
+    <t>99230647</t>
+  </si>
+  <si>
+    <t>52090339</t>
+  </si>
+  <si>
+    <t>124253546</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>171.0</v>
+        <v>169.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>129.0</v>
+        <v>39.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1625,93 +1625,69 @@
         <v>68</v>
       </c>
       <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>72</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
         <v>73</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>74</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>76</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>77</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>78</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>79</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>80</v>
       </c>
-      <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>81</v>
       </c>
-      <c r="X3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>83</v>
-      </c>
       <c r="Z3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69.0</v>
+        <v>32.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1723,10 +1699,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -1741,27 +1717,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1773,13 +1743,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1791,27 +1761,27 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45.0</v>
+        <v>26.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1823,13 +1793,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1841,33 +1811,21 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1879,13 +1837,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1897,57 +1855,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32.0</v>
+        <v>22.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1959,13 +1881,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1977,21 +1899,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2003,13 +1925,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2021,27 +1943,33 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" t="s">
         <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2053,13 +1981,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -2071,63 +1999,21 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" t="s">
-        <v>142</v>
-      </c>
-      <c r="T10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" t="s">
-        <v>143</v>
-      </c>
-      <c r="V10" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" t="s">
-        <v>144</v>
-      </c>
-      <c r="X10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2139,13 +2025,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -2157,21 +2043,63 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2183,13 +2111,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2201,21 +2129,21 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2227,13 +2155,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2245,21 +2173,45 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>147</v>
+      </c>
+      <c r="R13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S13" t="s">
+        <v>149</v>
+      </c>
+      <c r="T13" t="s">
+        <v>150</v>
+      </c>
+      <c r="U13" t="s">
+        <v>151</v>
+      </c>
+      <c r="V13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2271,51 +2223,99 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" t="s">
         <v>160</v>
       </c>
-      <c r="F14" t="s">
+      <c r="R14" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" t="s">
         <v>161</v>
       </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="T14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" t="s">
         <v>162</v>
       </c>
-      <c r="L14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="V14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W14" t="s">
         <v>163</v>
       </c>
-      <c r="N14" t="s">
+      <c r="X14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" t="s">
         <v>164</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Z14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA14" t="s">
         <v>165</v>
       </c>
-      <c r="P14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="AB14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC14" t="s">
         <v>166</v>
       </c>
-      <c r="R14" t="s">
-        <v>158</v>
+      <c r="AD14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2327,13 +2327,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2345,21 +2345,33 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>175</v>
+      </c>
+      <c r="R15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2371,13 +2383,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2389,21 +2401,27 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2415,13 +2433,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2433,22 +2451,16 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -2465,13 +2477,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2483,16 +2495,34 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>190</v>
+      </c>
+      <c r="P18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>191</v>
+      </c>
+      <c r="R18" t="s">
+        <v>181</v>
+      </c>
+      <c r="S18" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -2509,10 +2539,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -2527,16 +2557,16 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2553,13 +2583,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2571,16 +2601,16 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -2597,10 +2627,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -2615,40 +2645,40 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="Q21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="U21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -2665,10 +2695,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
@@ -2683,13 +2713,13 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
@@ -2709,10 +2739,10 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -2727,19 +2757,19 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
@@ -2759,13 +2789,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2777,16 +2807,16 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -2803,10 +2833,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
@@ -2821,19 +2851,19 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s">
         <v>66</v>
@@ -2841,7 +2871,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2853,13 +2883,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -2871,28 +2901,22 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>229</v>
-      </c>
-      <c r="R26" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -2909,13 +2933,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2927,22 +2951,34 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O27" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>112</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>241</v>
+      </c>
+      <c r="R27" t="s">
+        <v>142</v>
+      </c>
+      <c r="S27" t="s">
+        <v>242</v>
+      </c>
+      <c r="T27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -2959,13 +2995,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -2977,22 +3013,28 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s">
-        <v>108</v>
+        <v>150</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>248</v>
+      </c>
+      <c r="R28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -3009,13 +3051,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3027,16 +3069,22 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="O29" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -3053,13 +3101,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3071,33 +3119,27 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" t="s">
         <v>64</v>
       </c>
-      <c r="M30" t="s">
-        <v>247</v>
-      </c>
-      <c r="N30" t="s">
-        <v>89</v>
-      </c>
       <c r="O30" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P30" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>249</v>
-      </c>
-      <c r="R30" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3109,13 +3151,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3127,27 +3169,21 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="M31" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31" t="s">
-        <v>254</v>
-      </c>
-      <c r="P31" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3159,13 +3195,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3177,39 +3213,45 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O32" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="R32" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="S32" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="T32" t="s">
-        <v>64</v>
+        <v>148</v>
+      </c>
+      <c r="U32" t="s">
+        <v>270</v>
+      </c>
+      <c r="V32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3221,13 +3263,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3239,22 +3281,28 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="O33" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>95</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -3271,13 +3319,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3289,16 +3337,22 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s">
-        <v>66</v>
+        <v>123</v>
+      </c>
+      <c r="O34" t="s">
+        <v>281</v>
+      </c>
+      <c r="P34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -3315,13 +3369,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3333,28 +3387,22 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O35" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="P35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>277</v>
-      </c>
-      <c r="R35" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
@@ -3371,13 +3419,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3389,22 +3437,16 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N36" t="s">
         <v>66</v>
-      </c>
-      <c r="O36" t="s">
-        <v>282</v>
-      </c>
-      <c r="P36" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3463,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -3439,16 +3481,28 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>60</v>
       </c>
       <c r="M37" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="O37" t="s">
+        <v>295</v>
+      </c>
+      <c r="P37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>296</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38">
@@ -3465,10 +3519,10 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
         <v>52</v>
@@ -3483,22 +3537,16 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="N38" t="s">
-        <v>138</v>
-      </c>
-      <c r="O38" t="s">
-        <v>292</v>
-      </c>
-      <c r="P38" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
@@ -3515,10 +3563,10 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -3533,40 +3581,22 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="O39" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>298</v>
-      </c>
-      <c r="R39" t="s">
-        <v>82</v>
-      </c>
-      <c r="S39" t="s">
-        <v>299</v>
-      </c>
-      <c r="T39" t="s">
-        <v>267</v>
-      </c>
-      <c r="U39" t="s">
-        <v>300</v>
-      </c>
-      <c r="V39" t="s">
-        <v>301</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -3583,13 +3613,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3601,16 +3631,16 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="M40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
@@ -3627,10 +3657,10 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
         <v>52</v>
@@ -3645,16 +3675,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -3671,13 +3701,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -3689,16 +3719,16 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -3715,10 +3745,10 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
         <v>58</v>
@@ -3733,34 +3763,34 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="O43" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P43" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="Q43" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="R43" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="T43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -3777,10 +3807,10 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
@@ -3795,16 +3825,16 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -3821,10 +3851,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
         <v>52</v>
@@ -3839,28 +3869,28 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="M45" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="O45" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P45" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="Q45" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="R45" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -3877,13 +3907,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -3895,16 +3925,16 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
@@ -3921,13 +3951,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -3939,16 +3969,16 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48">
@@ -3965,13 +3995,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -3983,16 +4013,16 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M48" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
@@ -4009,10 +4039,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
@@ -4027,40 +4057,40 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O49" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="Q49" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="R49" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="S49" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="T49" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="U49" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="V49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -4077,10 +4107,10 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G50" t="s">
         <v>58</v>
@@ -4095,16 +4125,16 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -4121,13 +4151,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4139,34 +4169,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="M51" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N51" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="O51" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P51" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>364</v>
-      </c>
-      <c r="R51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S51" t="s">
-        <v>365</v>
-      </c>
-      <c r="T51" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -4183,10 +4201,10 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F52" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
         <v>52</v>
@@ -4201,16 +4219,16 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L52" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N52" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -4227,10 +4245,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G53" t="s">
         <v>52</v>
@@ -4245,16 +4263,16 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="M53" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N53" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -4271,10 +4289,10 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F54" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G54" t="s">
         <v>52</v>
@@ -4289,16 +4307,16 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -4315,10 +4333,10 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
         <v>55</v>
@@ -4333,13 +4351,13 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M55" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s">
         <v>66</v>
@@ -4359,10 +4377,10 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -4377,16 +4395,16 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N56" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -4403,10 +4421,10 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G57" t="s">
         <v>55</v>
@@ -4421,22 +4439,22 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M57" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N57" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="O57" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P57" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -4453,10 +4471,10 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G58" t="s">
         <v>52</v>
@@ -4471,16 +4489,16 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M58" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N58" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -4497,13 +4515,13 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="H59" t="s">
         <v>56</v>
@@ -4515,16 +4533,16 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="M59" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N59" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -4541,10 +4559,10 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G60" t="s">
         <v>52</v>
@@ -4559,28 +4577,28 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L60" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O60" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P60" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="Q60" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="R60" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -4597,13 +4615,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -4615,16 +4633,16 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N61" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
@@ -4641,10 +4659,10 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F62" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G62" t="s">
         <v>58</v>
@@ -4659,40 +4677,16 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N62" t="s">
-        <v>64</v>
-      </c>
-      <c r="O62" t="s">
-        <v>413</v>
-      </c>
-      <c r="P62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>414</v>
-      </c>
-      <c r="R62" t="s">
-        <v>185</v>
-      </c>
-      <c r="S62" t="s">
-        <v>415</v>
-      </c>
-      <c r="T62" t="s">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s">
-        <v>416</v>
-      </c>
-      <c r="V62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
@@ -4715,7 +4709,7 @@
         <v>418</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
@@ -4730,13 +4724,13 @@
         <v>419</v>
       </c>
       <c r="L63" t="s">
+        <v>112</v>
+      </c>
+      <c r="M63" t="s">
         <v>420</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>421</v>
-      </c>
-      <c r="N63" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -4759,7 +4753,7 @@
         <v>423</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -4774,13 +4768,19 @@
         <v>424</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="M64" t="s">
         <v>425</v>
       </c>
       <c r="N64" t="s">
+        <v>148</v>
+      </c>
+      <c r="O64" t="s">
         <v>426</v>
+      </c>
+      <c r="P64" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="65">
@@ -4818,19 +4818,13 @@
         <v>429</v>
       </c>
       <c r="L65" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="M65" t="s">
         <v>430</v>
       </c>
       <c r="N65" t="s">
-        <v>89</v>
-      </c>
-      <c r="O65" t="s">
-        <v>431</v>
-      </c>
-      <c r="P65" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
@@ -4847,34 +4841,34 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
+        <v>431</v>
+      </c>
+      <c r="F66" t="s">
         <v>432</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" t="s">
         <v>433</v>
       </c>
-      <c r="G66" t="s">
-        <v>58</v>
-      </c>
-      <c r="H66" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" t="s">
-        <v>57</v>
-      </c>
-      <c r="J66" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
+        <v>155</v>
+      </c>
+      <c r="M66" t="s">
         <v>434</v>
       </c>
-      <c r="L66" t="s">
-        <v>64</v>
-      </c>
-      <c r="M66" t="s">
-        <v>435</v>
-      </c>
       <c r="N66" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67">
@@ -4891,34 +4885,40 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
+        <v>435</v>
+      </c>
+      <c r="F67" t="s">
         <v>436</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" t="s">
         <v>437</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" t="s">
-        <v>58</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
+        <v>60</v>
+      </c>
+      <c r="M67" t="s">
         <v>438</v>
       </c>
-      <c r="L67" t="s">
-        <v>77</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
+        <v>130</v>
+      </c>
+      <c r="O67" t="s">
         <v>439</v>
       </c>
-      <c r="N67" t="s">
-        <v>108</v>
+      <c r="P67" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="68">
@@ -4941,7 +4941,7 @@
         <v>441</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -4956,19 +4956,19 @@
         <v>442</v>
       </c>
       <c r="L68" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M68" t="s">
         <v>443</v>
       </c>
       <c r="N68" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="O68" t="s">
         <v>444</v>
       </c>
       <c r="P68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
